--- a/resources/experiment 2/metrics/R2/incidence/Retinopatía proliferativa (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Retinopatía proliferativa (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9874263388551094</v>
+        <v>0.9991255098771341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9874263603617329</v>
+        <v>0.9989474040679845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9874263603617329</v>
+        <v>0.9776414451205874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995314113497652</v>
+        <v>0.9986173871658394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999531656280777</v>
+        <v>0.9983369384392237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999531656280777</v>
+        <v>0.9868659028293542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9325685422818463</v>
+        <v>0.9996270326120303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9325685422818463</v>
+        <v>0.9996200389525587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9325685422818463</v>
+        <v>0.9992421193657409</v>
       </c>
     </row>
   </sheetData>
